--- a/data/trans_camb/P26-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P26-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,99</t>
+          <t>1,03; 13,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 2,69</t>
+          <t>-8,83; 3,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -7,83</t>
+          <t>-17,71; -7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 11,98</t>
+          <t>-3,15; 12,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,86</t>
+          <t>-12,36; 2,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -11,14</t>
+          <t>-23,3; -11,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 11,25</t>
+          <t>0,99; 10,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,32</t>
+          <t>-7,96; 1,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -10,53</t>
+          <t>-17,78; -10,35</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 75,48</t>
+          <t>3,7; 69,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 14,99</t>
+          <t>-36,19; 17,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,59; -39,93</t>
+          <t>-72,0; -40,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 50,45</t>
+          <t>-10,74; 53,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 12,57</t>
+          <t>-39,63; 9,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,78; -49,18</t>
+          <t>-73,6; -48,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 52,31</t>
+          <t>3,53; 50,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 6,19</t>
+          <t>-30,92; 7,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -49,06</t>
+          <t>-68,87; -48,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 10,99</t>
+          <t>-3,18; 10,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 4,1</t>
+          <t>-9,32; 3,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -7,68</t>
+          <t>-19,4; -7,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 4,08</t>
+          <t>-10,99; 3,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -6,08</t>
+          <t>-19,45; -5,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,7; -17,27</t>
+          <t>-29,48; -17,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,28</t>
+          <t>-5,59; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,17; -3,17</t>
+          <t>-12,93; -3,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -14,58</t>
+          <t>-23,23; -14,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 56,46</t>
+          <t>-12,46; 52,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 22,82</t>
+          <t>-34,68; 20,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,37; -38,5</t>
+          <t>-74,38; -38,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 12,08</t>
+          <t>-28,08; 11,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,29; -18,41</t>
+          <t>-50,07; -18,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,76; -52,23</t>
+          <t>-74,42; -52,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 15,42</t>
+          <t>-17,54; 16,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,56; -11,59</t>
+          <t>-39,87; -11,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,88; -52,45</t>
+          <t>-71,55; -51,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 11,24</t>
+          <t>0,37; 10,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 3,35</t>
+          <t>-7,86; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 50,24</t>
+          <t>-21,08; 53,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 10,45</t>
+          <t>-10,51; 9,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,96; -10,86</t>
+          <t>-33,19; -12,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -26,88</t>
+          <t>-44,7; -26,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 9,7</t>
+          <t>0,02; 9,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -2,18</t>
+          <t>-12,22; -2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 44,1</t>
+          <t>-24,69; 41,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 44,64</t>
+          <t>1,23; 42,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 13,33</t>
+          <t>-26,05; 10,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 203,21</t>
+          <t>-73,45; 200,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 28,7</t>
+          <t>-21,26; 25,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,43; -28,4</t>
+          <t>-67,26; -31,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,83; -68,63</t>
+          <t>-87,79; -68,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 32,94</t>
+          <t>0,03; 33,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,11; -7,03</t>
+          <t>-35,58; -7,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,85; 146,33</t>
+          <t>-75,85; 136,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,87</t>
+          <t>1,62; 9,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,11</t>
+          <t>-4,38; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -10,65</t>
+          <t>-18,19; -10,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 5,41</t>
+          <t>-4,81; 5,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -6,25</t>
+          <t>-17,56; -7,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-36,06; -21,96</t>
+          <t>-36,48; -21,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,12</t>
+          <t>0,53; 7,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -1,82</t>
+          <t>-7,81; -1,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -15,57</t>
+          <t>-23,97; -15,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,17; 38,7</t>
+          <t>5,09; 37,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 11,83</t>
+          <t>-14,86; 11,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,09; -40,2</t>
+          <t>-61,54; -39,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 13,7</t>
+          <t>-11,01; 14,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,94; -15,71</t>
+          <t>-38,86; -17,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -54,51</t>
+          <t>-82,68; -53,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 22,13</t>
+          <t>1,58; 22,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -5,69</t>
+          <t>-22,59; -5,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-71,78; -49,14</t>
+          <t>-71,35; -49,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 6,9</t>
+          <t>-6,66; 7,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -2,22</t>
+          <t>-15,33; -2,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -11,68</t>
+          <t>-24,96; -12,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,77</t>
+          <t>-8,54; 2,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,87; -8,49</t>
+          <t>-19,93; -8,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -24,76</t>
+          <t>-35,98; -25,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,67</t>
+          <t>-6,58; 2,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -8,09</t>
+          <t>-16,34; -7,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-30,23; -21,95</t>
+          <t>-30,25; -21,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 24,02</t>
+          <t>-18,03; 26,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,02; -7,29</t>
+          <t>-41,06; -7,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-67,83; -39,68</t>
+          <t>-68,67; -42,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 6,69</t>
+          <t>-18,4; 7,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -20,11</t>
+          <t>-41,8; -20,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,38; -61,33</t>
+          <t>-77,61; -61,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 6,86</t>
+          <t>-15,34; 7,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-38,66; -21,43</t>
+          <t>-38,27; -20,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,14; -58,0</t>
+          <t>-72,59; -57,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 5,95</t>
+          <t>-10,78; 5,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,07; -2,29</t>
+          <t>-18,29; -2,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-38,43; -18,85</t>
+          <t>-39,81; -19,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,72; 9,6</t>
+          <t>1,31; 9,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -4,31</t>
+          <t>-11,63; -3,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,32; -16,06</t>
+          <t>-24,23; -16,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,94</t>
+          <t>-0,31; 6,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -4,47</t>
+          <t>-11,81; -4,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -18,25</t>
+          <t>-25,71; -18,02</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 14,54</t>
+          <t>-21,61; 14,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,59; -4,67</t>
+          <t>-37,32; -5,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,16; -43,08</t>
+          <t>-82,84; -44,83</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,13; 30,81</t>
+          <t>4,12; 30,91</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-34,29; -14,23</t>
+          <t>-34,25; -11,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-70,69; -50,86</t>
+          <t>-70,54; -50,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 20,7</t>
+          <t>-0,8; 21,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -13,28</t>
+          <t>-32,46; -14,81</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-70,74; -53,14</t>
+          <t>-70,28; -52,83</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,46</t>
+          <t>1,87; 6,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -1,02</t>
+          <t>-5,68; -1,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 10,02</t>
+          <t>-17,75; 13,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,97</t>
+          <t>-0,73; 3,93</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -8,11</t>
+          <t>-12,63; -7,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -21,9</t>
+          <t>-27,17; -21,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,76</t>
+          <t>1,35; 4,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -5,19</t>
+          <t>-8,65; -5,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -5,28</t>
+          <t>-21,19; -6,69</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>5,72; 23,38</t>
+          <t>6,43; 23,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -3,63</t>
+          <t>-19,19; -4,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 35,67</t>
+          <t>-61,37; 49,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,14</t>
+          <t>-1,88; 11,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,25; -22,75</t>
+          <t>-33,4; -22,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-71,81; -60,88</t>
+          <t>-72,39; -60,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,69</t>
+          <t>4,04; 14,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,38; -16,26</t>
+          <t>-25,6; -16,81</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-64,29; -16,16</t>
+          <t>-63,97; -20,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P26-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
